--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>568327.0112480704</v>
+        <v>563738.7292240683</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6910952.51969683</v>
+        <v>6910952.519696832</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5339414.741900328</v>
+        <v>5339414.741900329</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>179.3285090950306</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
         <v>277.176001558223</v>
@@ -1423,13 +1423,13 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>134.9598286123676</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>41.34546638575365</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>110.0188020829566</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>132.4546365386489</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>107.330606471084</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T15" t="n">
         <v>136.7309641056443</v>
@@ -1767,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>67.74564137801185</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>228.4221534725839</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45.26929230595104</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>219.4807640035126</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>43.3969387342046</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>29.66262390997325</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>205.5516496779716</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
@@ -2140,10 +2140,10 @@
         <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>179.2801966391188</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2259,7 +2259,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>177.5191887013868</v>
+        <v>145.4001574533591</v>
       </c>
       <c r="U22" t="n">
         <v>277.3402845023203</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>18.26219433623179</v>
+        <v>80.10960226768454</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>34.64430390696375</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2490,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I25" t="n">
-        <v>68.2063336752453</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S25" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>236.5633491017144</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>120.1594465195158</v>
       </c>
     </row>
     <row r="26">
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>51.69198155551913</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>40.2280176483471</v>
+        <v>277.0103058729864</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2721,7 +2721,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2730,7 +2730,7 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H28" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S28" t="n">
         <v>150.7214115632189</v>
@@ -2772,16 +2772,16 @@
         <v>277.3271665015756</v>
       </c>
       <c r="V28" t="n">
-        <v>101.6824962295982</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>103.7281043113781</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>234.591349623202</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>26.35492112729945</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2952,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U31" t="n">
-        <v>179.055479414157</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>240.9179089571484</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>182.0648489712036</v>
       </c>
       <c r="C32" t="n">
-        <v>283.3257985482373</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>271.6851953721275</v>
@@ -3088,16 +3088,16 @@
         <v>255.5900972850689</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166.056222293197</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>88.51153391964527</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>58.00381491053871</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>271.6851953721275</v>
@@ -3319,13 +3319,13 @@
         <v>51.69198155551913</v>
       </c>
       <c r="T35" t="n">
-        <v>56.55920761147548</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I37" t="n">
-        <v>46.92940152322902</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0.8692371952047111</v>
       </c>
       <c r="S37" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.5633491017144</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>51.9531128442714</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.0298839804087</v>
+        <v>197.8111787206321</v>
       </c>
       <c r="H38" t="n">
         <v>271.6851953721275</v>
@@ -3559,13 +3559,13 @@
         <v>208.7978291248855</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>31.96809402382387</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3678,10 +3678,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3219911678582</v>
+        <v>110.3040552077811</v>
       </c>
       <c r="I40" t="n">
-        <v>68.2063336752453</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>150.7214115632189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U40" t="n">
-        <v>28.33406785093919</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>307.4969544793645</v>
+        <v>61.2578282747884</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>96.17080219441772</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>3.382089587069222</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>133.3219911678582</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>378.2712554500208</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>337.1793601366347</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>398.0298839804087</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H45" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.99300189413504</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T45" t="n">
         <v>135.5747030934602</v>
@@ -4137,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>143.3788726433476</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5780456014529</v>
+        <v>9.95804048347218</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I46" t="n">
         <v>68.2063336752453</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.869237195204704</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>150.7214115632189</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>316.2519252281125</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="C11" t="n">
-        <v>316.2519252281125</v>
+        <v>1568.113435465455</v>
       </c>
       <c r="D11" t="n">
-        <v>316.2519252281125</v>
+        <v>1144.820814650455</v>
       </c>
       <c r="E11" t="n">
-        <v>316.2519252281125</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F11" t="n">
-        <v>316.2519252281125</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G11" t="n">
         <v>316.2519252281125</v>
@@ -5038,19 +5038,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J11" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149077</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250296</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303099</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5071,22 +5071,22 @@
         <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U11" t="n">
-        <v>1277.760618769164</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V11" t="n">
-        <v>1141.437559564752</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W11" t="n">
-        <v>1141.437559564752</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X11" t="n">
-        <v>1141.437559564752</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="Y11" t="n">
-        <v>736.1002895196425</v>
+        <v>1749.253343642254</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
         <v>80.62417733004328</v>
@@ -5120,52 +5120,52 @@
         <v>51.80960935527474</v>
       </c>
       <c r="J12" t="n">
-        <v>117.9640444811038</v>
+        <v>410.0665369506949</v>
       </c>
       <c r="K12" t="n">
-        <v>243.7326700523438</v>
+        <v>535.8351625219349</v>
       </c>
       <c r="L12" t="n">
-        <v>420.3715208829927</v>
+        <v>712.4740133525838</v>
       </c>
       <c r="M12" t="n">
-        <v>629.6462193640077</v>
+        <v>921.7487118335988</v>
       </c>
       <c r="N12" t="n">
-        <v>846.8012011963239</v>
+        <v>1138.903693665915</v>
       </c>
       <c r="O12" t="n">
-        <v>1237.012362544031</v>
+        <v>1333.947360653402</v>
       </c>
       <c r="P12" t="n">
-        <v>1685.929917764136</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q12" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R12" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.621532531487</v>
+        <v>78.03926343773941</v>
       </c>
       <c r="C13" t="n">
-        <v>785.621532531487</v>
+        <v>78.03926343773941</v>
       </c>
       <c r="D13" t="n">
-        <v>622.3047596582577</v>
+        <v>78.03926343773941</v>
       </c>
       <c r="E13" t="n">
-        <v>456.0965538111112</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F13" t="n">
-        <v>284.2347795856716</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G13" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H13" t="n">
         <v>36.27616607839228</v>
@@ -5199,25 +5199,25 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>138.6345353799611</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>587.5520906000656</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M13" t="n">
-        <v>685.6054381776848</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N13" t="n">
-        <v>1134.522993397789</v>
+        <v>1107.808470031876</v>
       </c>
       <c r="O13" t="n">
-        <v>1583.440548617894</v>
+        <v>1556.72602525198</v>
       </c>
       <c r="P13" t="n">
-        <v>1773.863841351391</v>
+        <v>1627.467133393116</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
@@ -5238,13 +5238,13 @@
         <v>1011.964300841745</v>
       </c>
       <c r="W13" t="n">
-        <v>1011.964300841745</v>
+        <v>737.1118970142579</v>
       </c>
       <c r="X13" t="n">
-        <v>1011.964300841745</v>
+        <v>494.548000460063</v>
       </c>
       <c r="Y13" t="n">
-        <v>785.621532531487</v>
+        <v>268.2052321498051</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>889.1538359172346</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="C14" t="n">
-        <v>462.2531059305347</v>
+        <v>1143.968056608913</v>
       </c>
       <c r="D14" t="n">
-        <v>462.2531059305347</v>
+        <v>1143.968056608913</v>
       </c>
       <c r="E14" t="n">
-        <v>36.27616607839228</v>
+        <v>1143.968056608913</v>
       </c>
       <c r="F14" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I14" t="n">
-        <v>68.0889345387271</v>
+        <v>68.08893453872656</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149084</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250302</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M14" t="n">
         <v>862.6140377103482</v>
@@ -5296,34 +5296,34 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P14" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090911</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189221</v>
       </c>
       <c r="R14" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145524</v>
       </c>
       <c r="U14" t="n">
-        <v>1705.393549908418</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V14" t="n">
-        <v>1705.393549908418</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.002200208765</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="X14" t="n">
-        <v>1309.002200208765</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="Y14" t="n">
-        <v>1309.002200208765</v>
+        <v>1277.760618769164</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432376</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C15" t="n">
-        <v>475.9308838607424</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760274</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489646</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318687</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004349</v>
+        <v>80.6241773300433</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I15" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968661</v>
       </c>
       <c r="J15" t="n">
-        <v>271.4329055423831</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>397.201531113623</v>
+        <v>559.2924683663468</v>
       </c>
       <c r="L15" t="n">
-        <v>573.8403819442719</v>
+        <v>735.9313191969958</v>
       </c>
       <c r="M15" t="n">
-        <v>783.1150804252869</v>
+        <v>945.2060176780109</v>
       </c>
       <c r="N15" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O15" t="n">
-        <v>1427.076302632878</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.474417479231</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q15" t="n">
         <v>1674.905125453736</v>
       </c>
       <c r="R15" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.056685410008</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633003</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.2487291994763</v>
+        <v>346.3801139695981</v>
       </c>
       <c r="C16" t="n">
-        <v>36.27616607839228</v>
+        <v>346.3801139695981</v>
       </c>
       <c r="D16" t="n">
-        <v>36.27616607839228</v>
+        <v>346.3801139695981</v>
       </c>
       <c r="E16" t="n">
-        <v>36.27616607839228</v>
+        <v>346.3801139695981</v>
       </c>
       <c r="F16" t="n">
-        <v>36.27616607839228</v>
+        <v>346.3801139695981</v>
       </c>
       <c r="G16" t="n">
-        <v>36.27616607839228</v>
+        <v>180.9068389375041</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="J16" t="n">
         <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>463.838861142204</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L16" t="n">
-        <v>606.7836421246717</v>
+        <v>707.2342751924275</v>
       </c>
       <c r="M16" t="n">
-        <v>1055.701197344776</v>
+        <v>805.2876227700467</v>
       </c>
       <c r="N16" t="n">
-        <v>1152.699903436724</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O16" t="n">
-        <v>1238.993031259048</v>
+        <v>1703.122733210256</v>
       </c>
       <c r="P16" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351392</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S16" t="n">
-        <v>1657.330917251774</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T16" t="n">
-        <v>1417.340083083371</v>
+        <v>1562.016618765575</v>
       </c>
       <c r="U16" t="n">
-        <v>1137.198381565876</v>
+        <v>1562.016618765575</v>
       </c>
       <c r="V16" t="n">
-        <v>855.4869141739048</v>
+        <v>1280.305151373604</v>
       </c>
       <c r="W16" t="n">
-        <v>855.4869141739048</v>
+        <v>1005.452747546117</v>
       </c>
       <c r="X16" t="n">
-        <v>624.7574662217999</v>
+        <v>762.8888509919217</v>
       </c>
       <c r="Y16" t="n">
-        <v>398.4146979115419</v>
+        <v>536.5460826816637</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>886.469516880092</v>
+        <v>1314.278017727834</v>
       </c>
       <c r="C17" t="n">
-        <v>459.568786893392</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="D17" t="n">
-        <v>36.27616607839228</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E17" t="n">
-        <v>36.27616607839228</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J17" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250302</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303106</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103486</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O17" t="n">
-        <v>1382.739131455147</v>
+        <v>1382.739131455148</v>
       </c>
       <c r="P17" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090911</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189221</v>
       </c>
       <c r="R17" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T17" t="n">
-        <v>1749.253343642253</v>
+        <v>1535.975759145524</v>
       </c>
       <c r="U17" t="n">
-        <v>1749.253343642253</v>
+        <v>1535.975759145524</v>
       </c>
       <c r="V17" t="n">
-        <v>1749.253343642253</v>
+        <v>1535.975759145524</v>
       </c>
       <c r="W17" t="n">
-        <v>1749.253343642253</v>
+        <v>1314.278017727834</v>
       </c>
       <c r="X17" t="n">
-        <v>1337.533344810001</v>
+        <v>1314.278017727834</v>
       </c>
       <c r="Y17" t="n">
-        <v>932.196074764891</v>
+        <v>1314.278017727834</v>
       </c>
     </row>
     <row r="18">
@@ -5582,28 +5582,28 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004328</v>
+        <v>80.6241773300433</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968661</v>
       </c>
       <c r="J18" t="n">
         <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>559.2924683663467</v>
+        <v>559.2924683663468</v>
       </c>
       <c r="L18" t="n">
-        <v>735.9313191969957</v>
+        <v>735.9313191969958</v>
       </c>
       <c r="M18" t="n">
-        <v>945.2060176780108</v>
+        <v>945.2060176780109</v>
       </c>
       <c r="N18" t="n">
         <v>1162.360999510327</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>583.6547128337841</v>
+        <v>66.23841245210264</v>
       </c>
       <c r="C19" t="n">
-        <v>583.6547128337841</v>
+        <v>66.23841245210264</v>
       </c>
       <c r="D19" t="n">
-        <v>539.8194211830723</v>
+        <v>66.23841245210264</v>
       </c>
       <c r="E19" t="n">
-        <v>373.6112153359259</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="F19" t="n">
-        <v>201.7494411104863</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="J19" t="n">
         <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>463.838861142204</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L19" t="n">
-        <v>606.7836421246717</v>
+        <v>556.3346842424263</v>
       </c>
       <c r="M19" t="n">
-        <v>1055.701197344776</v>
+        <v>1005.252239462531</v>
       </c>
       <c r="N19" t="n">
-        <v>1152.699903436724</v>
+        <v>1454.169794682635</v>
       </c>
       <c r="O19" t="n">
-        <v>1238.993031259048</v>
+        <v>1540.46292250496</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351392</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
@@ -5703,7 +5703,7 @@
         <v>1802.007452933977</v>
       </c>
       <c r="T19" t="n">
-        <v>1562.016618765574</v>
+        <v>1562.016618765575</v>
       </c>
       <c r="U19" t="n">
         <v>1281.874917248079</v>
@@ -5712,13 +5712,13 @@
         <v>1000.163449856108</v>
       </c>
       <c r="W19" t="n">
-        <v>1000.163449856108</v>
+        <v>725.3110460286211</v>
       </c>
       <c r="X19" t="n">
-        <v>1000.163449856108</v>
+        <v>482.7471494744262</v>
       </c>
       <c r="Y19" t="n">
-        <v>773.8206815458498</v>
+        <v>256.4043811641683</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>741.3761070387122</v>
+        <v>523.8798541957606</v>
       </c>
       <c r="C20" t="n">
-        <v>741.3761070387122</v>
+        <v>523.8798541957606</v>
       </c>
       <c r="D20" t="n">
-        <v>741.3761070387122</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="E20" t="n">
-        <v>741.3761070387122</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="F20" t="n">
         <v>316.2519252281125</v>
@@ -5746,58 +5746,58 @@
         <v>316.2519252281125</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149078</v>
+        <v>184.2963411149081</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250295</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L20" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303104</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O20" t="n">
-        <v>1382.739131455147</v>
+        <v>1382.739131455148</v>
       </c>
       <c r="P20" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.776917090911</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189221</v>
       </c>
       <c r="R20" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1600.530719422884</v>
+        <v>1535.975759145524</v>
       </c>
       <c r="U20" t="n">
-        <v>1342.315579046524</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V20" t="n">
-        <v>1161.224471330242</v>
+        <v>920.2712038954137</v>
       </c>
       <c r="W20" t="n">
-        <v>1161.224471330242</v>
+        <v>523.8798541957606</v>
       </c>
       <c r="X20" t="n">
-        <v>1161.224471330242</v>
+        <v>523.8798541957606</v>
       </c>
       <c r="Y20" t="n">
-        <v>1161.224471330242</v>
+        <v>523.8798541957606</v>
       </c>
     </row>
     <row r="21">
@@ -5819,28 +5819,28 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004328</v>
+        <v>80.6241773300433</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968661</v>
       </c>
       <c r="J21" t="n">
         <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>559.2924683663467</v>
+        <v>559.2924683663468</v>
       </c>
       <c r="L21" t="n">
-        <v>735.9313191969957</v>
+        <v>735.9313191969958</v>
       </c>
       <c r="M21" t="n">
-        <v>945.2060176780108</v>
+        <v>945.2060176780109</v>
       </c>
       <c r="N21" t="n">
         <v>1162.360999510327</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.1654365227246</v>
+        <v>673.7564986023369</v>
       </c>
       <c r="C22" t="n">
-        <v>916.1654365227246</v>
+        <v>673.7564986023369</v>
       </c>
       <c r="D22" t="n">
-        <v>752.8486636494953</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="E22" t="n">
-        <v>586.6404578023488</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="F22" t="n">
-        <v>414.7786835769092</v>
+        <v>338.577951503668</v>
       </c>
       <c r="G22" t="n">
-        <v>249.3054085448152</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583897</v>
+        <v>70.15038753583899</v>
       </c>
       <c r="K22" t="n">
-        <v>138.6345353799611</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L22" t="n">
-        <v>356.370067549942</v>
+        <v>834.8346997140878</v>
       </c>
       <c r="M22" t="n">
-        <v>805.2876227700464</v>
+        <v>932.888047291707</v>
       </c>
       <c r="N22" t="n">
-        <v>1254.205177990151</v>
+        <v>1029.886753383655</v>
       </c>
       <c r="O22" t="n">
-        <v>1703.122733210255</v>
+        <v>1478.80430860376</v>
       </c>
       <c r="P22" t="n">
-        <v>1773.863841351391</v>
+        <v>1773.863841351392</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
@@ -5937,25 +5937,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1657.330917251774</v>
+        <v>1657.330917251775</v>
       </c>
       <c r="T22" t="n">
-        <v>1478.018605432191</v>
+        <v>1510.462071339291</v>
       </c>
       <c r="U22" t="n">
-        <v>1197.876903914696</v>
+        <v>1230.320369821795</v>
       </c>
       <c r="V22" t="n">
-        <v>916.1654365227246</v>
+        <v>948.608902429824</v>
       </c>
       <c r="W22" t="n">
-        <v>916.1654365227246</v>
+        <v>673.7564986023369</v>
       </c>
       <c r="X22" t="n">
-        <v>916.1654365227246</v>
+        <v>673.7564986023369</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.1654365227246</v>
+        <v>673.7564986023369</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>917.4846757978022</v>
+        <v>1253.533537254825</v>
       </c>
       <c r="C23" t="n">
-        <v>899.0380148521135</v>
+        <v>1172.614747085447</v>
       </c>
       <c r="D23" t="n">
-        <v>475.7453940371138</v>
+        <v>749.3221262704474</v>
       </c>
       <c r="E23" t="n">
-        <v>49.76845418497137</v>
+        <v>749.3221262704474</v>
       </c>
       <c r="F23" t="n">
-        <v>49.76845418497137</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="G23" t="n">
-        <v>49.76845418497137</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H23" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="I23" t="n">
-        <v>102.0442972147721</v>
+        <v>102.0442972147725</v>
       </c>
       <c r="J23" t="n">
-        <v>263.301386048662</v>
+        <v>263.3013860486621</v>
       </c>
       <c r="K23" t="n">
-        <v>513.2289698376785</v>
+        <v>513.2289698376786</v>
       </c>
       <c r="L23" t="n">
-        <v>829.2827739385793</v>
+        <v>829.2827739385791</v>
       </c>
       <c r="M23" t="n">
         <v>1186.099811633997</v>
@@ -6004,7 +6004,7 @@
         <v>1549.440265901614</v>
       </c>
       <c r="O23" t="n">
-        <v>1890.36537379155</v>
+        <v>1890.365373791549</v>
       </c>
       <c r="P23" t="n">
         <v>2175.730653154893</v>
@@ -6016,25 +6016,25 @@
         <v>2488.422709248568</v>
       </c>
       <c r="S23" t="n">
-        <v>2488.422709248568</v>
+        <v>2436.208586465215</v>
       </c>
       <c r="T23" t="n">
-        <v>2488.422709248568</v>
+        <v>2436.208586465215</v>
       </c>
       <c r="U23" t="n">
-        <v>2488.422709248568</v>
+        <v>2436.208586465215</v>
       </c>
       <c r="V23" t="n">
-        <v>2130.933294374818</v>
+        <v>2078.719171591465</v>
       </c>
       <c r="W23" t="n">
-        <v>1734.541944675165</v>
+        <v>2078.719171591465</v>
       </c>
       <c r="X23" t="n">
-        <v>1322.821945842912</v>
+        <v>2078.719171591465</v>
       </c>
       <c r="Y23" t="n">
-        <v>917.4846757978022</v>
+        <v>1673.381901546355</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>91.3179836120334</v>
       </c>
       <c r="H24" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="I24" t="n">
-        <v>75.07978914432213</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J24" t="n">
         <v>183.4593521567757</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>791.6269942085879</v>
+        <v>857.7964481992022</v>
       </c>
       <c r="C25" t="n">
-        <v>791.6269942085879</v>
+        <v>685.8238850781182</v>
       </c>
       <c r="D25" t="n">
-        <v>756.6327478379175</v>
+        <v>522.5071122048889</v>
       </c>
       <c r="E25" t="n">
-        <v>590.424541990771</v>
+        <v>356.2989063577425</v>
       </c>
       <c r="F25" t="n">
-        <v>418.5627677653314</v>
+        <v>184.4371321323028</v>
       </c>
       <c r="G25" t="n">
-        <v>253.3324186729547</v>
+        <v>184.4371321323028</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6637407256232</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="I25" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="J25" t="n">
         <v>178.3974764362856</v>
       </c>
       <c r="K25" t="n">
-        <v>471.7114543771702</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L25" t="n">
-        <v>599.6050218669907</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M25" t="n">
-        <v>1148.515808236271</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N25" t="n">
-        <v>1679.981962748558</v>
+        <v>1367.22575817525</v>
       </c>
       <c r="O25" t="n">
-        <v>2177.630596344642</v>
+        <v>1864.874391771334</v>
       </c>
       <c r="P25" t="n">
         <v>2277.167815000588</v>
@@ -6171,28 +6171,28 @@
         <v>2488.422709248568</v>
       </c>
       <c r="R25" t="n">
-        <v>2488.422709248568</v>
+        <v>2487.544691879674</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.178859184711</v>
+        <v>2487.544691879674</v>
       </c>
       <c r="T25" t="n">
-        <v>2097.225981304191</v>
+        <v>2248.591813999155</v>
       </c>
       <c r="U25" t="n">
-        <v>1817.097530292499</v>
+        <v>1968.463362987462</v>
       </c>
       <c r="V25" t="n">
-        <v>1535.386062900528</v>
+        <v>1686.751895595491</v>
       </c>
       <c r="W25" t="n">
-        <v>1260.533659073041</v>
+        <v>1411.899491768004</v>
       </c>
       <c r="X25" t="n">
-        <v>1017.969762518846</v>
+        <v>1169.335595213809</v>
       </c>
       <c r="Y25" t="n">
-        <v>791.6269942085879</v>
+        <v>1047.962416911268</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1172.614747085447</v>
+        <v>1751.062926649413</v>
       </c>
       <c r="C26" t="n">
-        <v>1172.614747085447</v>
+        <v>1324.162196662713</v>
       </c>
       <c r="D26" t="n">
-        <v>749.3221262704474</v>
+        <v>900.8695758477136</v>
       </c>
       <c r="E26" t="n">
-        <v>749.3221262704474</v>
+        <v>474.8926359955712</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="G26" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H26" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I26" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J26" t="n">
-        <v>263.3013860486623</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K26" t="n">
-        <v>513.2289698376788</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L26" t="n">
-        <v>829.2827739385797</v>
+        <v>829.2827739385799</v>
       </c>
       <c r="M26" t="n">
         <v>1186.099811633997</v>
@@ -6244,34 +6244,34 @@
         <v>1890.36537379155</v>
       </c>
       <c r="P26" t="n">
-        <v>2175.730653154893</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q26" t="n">
         <v>2382.200022306145</v>
       </c>
       <c r="R26" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S26" t="n">
         <v>2436.208586465216</v>
       </c>
       <c r="T26" t="n">
-        <v>2225.301688359271</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U26" t="n">
-        <v>1967.129872919807</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="V26" t="n">
-        <v>1609.640458046057</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="W26" t="n">
-        <v>1213.249108346404</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="X26" t="n">
-        <v>1172.614747085447</v>
+        <v>2156.400196694523</v>
       </c>
       <c r="Y26" t="n">
-        <v>1172.614747085447</v>
+        <v>1751.062926649413</v>
       </c>
     </row>
     <row r="27">
@@ -6287,22 +6287,22 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D27" t="n">
-        <v>382.4949705971605</v>
+        <v>382.4949705971606</v>
       </c>
       <c r="E27" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F27" t="n">
-        <v>184.1472065530019</v>
+        <v>184.147206553002</v>
       </c>
       <c r="G27" t="n">
-        <v>91.3179836120334</v>
+        <v>91.31798361203343</v>
       </c>
       <c r="H27" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I27" t="n">
-        <v>75.07978914432213</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J27" t="n">
         <v>183.4593521567757</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1023.026797291579</v>
+        <v>722.149913497101</v>
       </c>
       <c r="C28" t="n">
-        <v>851.054234170495</v>
+        <v>550.177350376017</v>
       </c>
       <c r="D28" t="n">
-        <v>687.7374612972657</v>
+        <v>386.8605775027877</v>
       </c>
       <c r="E28" t="n">
-        <v>521.5292554501192</v>
+        <v>386.8605775027877</v>
       </c>
       <c r="F28" t="n">
-        <v>349.6674812246796</v>
+        <v>214.9988032773481</v>
       </c>
       <c r="G28" t="n">
-        <v>184.4371321323029</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H28" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I28" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J28" t="n">
         <v>100.4757597880648</v>
       </c>
       <c r="K28" t="n">
-        <v>246.6960581639044</v>
+        <v>196.621835802608</v>
       </c>
       <c r="L28" t="n">
-        <v>750.9785192448899</v>
+        <v>438.2223146715828</v>
       </c>
       <c r="M28" t="n">
-        <v>1299.889305614171</v>
+        <v>987.1331010408635</v>
       </c>
       <c r="N28" t="n">
-        <v>1831.355460126457</v>
+        <v>1518.59925555315</v>
       </c>
       <c r="O28" t="n">
-        <v>2329.004093722541</v>
+        <v>2016.247889149234</v>
       </c>
       <c r="P28" t="n">
-        <v>2428.541312378487</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q28" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R28" t="n">
-        <v>2488.422709248568</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.178859184711</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T28" t="n">
-        <v>2097.225981304191</v>
+        <v>2096.347963935298</v>
       </c>
       <c r="U28" t="n">
-        <v>1817.097530292499</v>
+        <v>1816.219512923606</v>
       </c>
       <c r="V28" t="n">
-        <v>1714.38793814139</v>
+        <v>1534.508045531634</v>
       </c>
       <c r="W28" t="n">
-        <v>1439.535534313903</v>
+        <v>1259.655641704147</v>
       </c>
       <c r="X28" t="n">
-        <v>1439.535534313903</v>
+        <v>1017.091745149953</v>
       </c>
       <c r="Y28" t="n">
-        <v>1213.192766003645</v>
+        <v>912.3158822091666</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>286.729413400327</v>
+        <v>2004.250183968288</v>
       </c>
       <c r="C29" t="n">
-        <v>286.729413400327</v>
+        <v>1577.349453981588</v>
       </c>
       <c r="D29" t="n">
-        <v>286.729413400327</v>
+        <v>1577.349453981588</v>
       </c>
       <c r="E29" t="n">
-        <v>49.76845418497136</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="F29" t="n">
-        <v>49.76845418497136</v>
+        <v>726.2483323188462</v>
       </c>
       <c r="G29" t="n">
-        <v>49.76845418497136</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H29" t="n">
         <v>49.76845418497136</v>
       </c>
       <c r="I29" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J29" t="n">
-        <v>263.3013860486619</v>
+        <v>263.3013860486623</v>
       </c>
       <c r="K29" t="n">
-        <v>513.2289698376785</v>
+        <v>513.2289698376788</v>
       </c>
       <c r="L29" t="n">
-        <v>829.2827739385793</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M29" t="n">
         <v>1186.099811633997</v>
@@ -6490,25 +6490,25 @@
         <v>2488.422709248568</v>
       </c>
       <c r="S29" t="n">
-        <v>2488.422709248568</v>
+        <v>2436.208586465215</v>
       </c>
       <c r="T29" t="n">
-        <v>2277.515811142623</v>
+        <v>2436.208586465215</v>
       </c>
       <c r="U29" t="n">
-        <v>2277.515811142623</v>
+        <v>2436.208586465215</v>
       </c>
       <c r="V29" t="n">
-        <v>1920.026396268873</v>
+        <v>2409.587454013398</v>
       </c>
       <c r="W29" t="n">
-        <v>1523.635046569219</v>
+        <v>2409.587454013398</v>
       </c>
       <c r="X29" t="n">
-        <v>1111.915047736967</v>
+        <v>2409.587454013398</v>
       </c>
       <c r="Y29" t="n">
-        <v>706.577777691857</v>
+        <v>2004.250183968288</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>49.76845418497136</v>
       </c>
       <c r="I30" t="n">
-        <v>75.07978914432212</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J30" t="n">
         <v>183.4593521567757</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.922083832231</v>
+        <v>919.9495207111468</v>
       </c>
       <c r="C31" t="n">
         <v>919.9495207111468</v>
@@ -6648,25 +6648,25 @@
         <v>2488.422709248568</v>
       </c>
       <c r="S31" t="n">
-        <v>2488.422709248568</v>
+        <v>2336.178859184711</v>
       </c>
       <c r="T31" t="n">
-        <v>2488.422709248568</v>
+        <v>2097.225981304191</v>
       </c>
       <c r="U31" t="n">
-        <v>2307.558588628207</v>
+        <v>2097.225981304191</v>
       </c>
       <c r="V31" t="n">
-        <v>2025.847121236236</v>
+        <v>1853.874558115152</v>
       </c>
       <c r="W31" t="n">
-        <v>1750.994717408749</v>
+        <v>1579.022154287665</v>
       </c>
       <c r="X31" t="n">
-        <v>1508.430820854554</v>
+        <v>1336.45825773347</v>
       </c>
       <c r="Y31" t="n">
-        <v>1282.088052544296</v>
+        <v>1110.115489423212</v>
       </c>
     </row>
     <row r="32">
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1012.436007620096</v>
+        <v>1177.07561429869</v>
       </c>
       <c r="C32" t="n">
-        <v>726.2483323188462</v>
+        <v>750.1748843119901</v>
       </c>
       <c r="D32" t="n">
-        <v>726.2483323188462</v>
+        <v>750.1748843119901</v>
       </c>
       <c r="E32" t="n">
-        <v>726.2483323188462</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="F32" t="n">
-        <v>726.2483323188462</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="G32" t="n">
         <v>324.1979444598476</v>
       </c>
       <c r="H32" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I32" t="n">
-        <v>102.0442972147721</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J32" t="n">
-        <v>263.3013860486612</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K32" t="n">
-        <v>513.2289698376778</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L32" t="n">
-        <v>829.2827739385787</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M32" t="n">
-        <v>1186.099811633996</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N32" t="n">
-        <v>1549.440265901613</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O32" t="n">
-        <v>1890.365373791549</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P32" t="n">
-        <v>2175.730653154892</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q32" t="n">
         <v>2382.200022306145</v>
       </c>
       <c r="R32" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S32" t="n">
         <v>2436.208586465216</v>
@@ -6733,19 +6733,19 @@
         <v>2436.208586465216</v>
       </c>
       <c r="U32" t="n">
-        <v>2178.036771025752</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="V32" t="n">
-        <v>1820.547356152002</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="W32" t="n">
-        <v>1424.156006452349</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="X32" t="n">
-        <v>1012.436007620096</v>
+        <v>1766.3167721935</v>
       </c>
       <c r="Y32" t="n">
-        <v>1012.436007620096</v>
+        <v>1360.979502148391</v>
       </c>
     </row>
     <row r="33">
@@ -6761,40 +6761,40 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D33" t="n">
-        <v>382.4949705971605</v>
+        <v>382.4949705971606</v>
       </c>
       <c r="E33" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F33" t="n">
-        <v>184.1472065530019</v>
+        <v>184.147206553002</v>
       </c>
       <c r="G33" t="n">
-        <v>91.3179836120334</v>
+        <v>91.31798361203343</v>
       </c>
       <c r="H33" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I33" t="n">
-        <v>75.07978914432213</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0655064016224</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K33" t="n">
-        <v>339.6930667592873</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L33" t="n">
-        <v>577.994914754343</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M33" t="n">
-        <v>859.2274224705418</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N33" t="n">
-        <v>1150.244722631353</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O33" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P33" t="n">
         <v>1635.880495210175</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.922083832231</v>
+        <v>753.7413148640003</v>
       </c>
       <c r="C34" t="n">
-        <v>919.9495207111468</v>
+        <v>753.7413148640003</v>
       </c>
       <c r="D34" t="n">
-        <v>756.6327478379175</v>
+        <v>590.424541990771</v>
       </c>
       <c r="E34" t="n">
         <v>590.424541990771</v>
@@ -6855,43 +6855,43 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I34" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J34" t="n">
-        <v>149.9267984993202</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K34" t="n">
-        <v>493.3554836278855</v>
+        <v>196.621835802608</v>
       </c>
       <c r="L34" t="n">
-        <v>997.6379447088709</v>
+        <v>438.2223146715828</v>
       </c>
       <c r="M34" t="n">
-        <v>1546.548731078152</v>
+        <v>987.1331010408635</v>
       </c>
       <c r="N34" t="n">
-        <v>1679.981962748558</v>
+        <v>1518.59925555315</v>
       </c>
       <c r="O34" t="n">
-        <v>2177.630596344642</v>
+        <v>2016.247889149234</v>
       </c>
       <c r="P34" t="n">
-        <v>2277.167815000588</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q34" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R34" t="n">
         <v>2487.544691879675</v>
       </c>
       <c r="S34" t="n">
-        <v>2335.300841815817</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T34" t="n">
         <v>2096.347963935298</v>
       </c>
       <c r="U34" t="n">
-        <v>1816.219512923605</v>
+        <v>1816.219512923606</v>
       </c>
       <c r="V34" t="n">
         <v>1534.508045531634</v>
@@ -6900,10 +6900,10 @@
         <v>1259.655641704147</v>
       </c>
       <c r="X34" t="n">
-        <v>1259.655641704147</v>
+        <v>1170.250051886324</v>
       </c>
       <c r="Y34" t="n">
-        <v>1259.655641704147</v>
+        <v>943.907283576066</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1577.349453981588</v>
+        <v>807.9118383012946</v>
       </c>
       <c r="C35" t="n">
-        <v>1577.349453981588</v>
+        <v>807.9118383012946</v>
       </c>
       <c r="D35" t="n">
-        <v>1577.349453981588</v>
+        <v>807.9118383012946</v>
       </c>
       <c r="E35" t="n">
-        <v>1151.372514129446</v>
+        <v>749.3221262704474</v>
       </c>
       <c r="F35" t="n">
-        <v>726.2483323188462</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="G35" t="n">
         <v>324.1979444598476</v>
       </c>
       <c r="H35" t="n">
-        <v>49.76845418497136</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I35" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J35" t="n">
-        <v>263.3013860486621</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K35" t="n">
-        <v>513.2289698376786</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L35" t="n">
-        <v>829.2827739385791</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M35" t="n">
-        <v>1186.099811633996</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N35" t="n">
-        <v>1549.440265901613</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O35" t="n">
-        <v>1890.365373791549</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P35" t="n">
-        <v>2175.730653154893</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q35" t="n">
         <v>2382.200022306145</v>
       </c>
       <c r="R35" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S35" t="n">
-        <v>2436.208586465215</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T35" t="n">
-        <v>2379.078073726351</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="U35" t="n">
-        <v>2379.078073726351</v>
+        <v>1967.129872919808</v>
       </c>
       <c r="V35" t="n">
-        <v>2379.078073726351</v>
+        <v>1609.640458046057</v>
       </c>
       <c r="W35" t="n">
-        <v>1982.686724026698</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="X35" t="n">
-        <v>1982.686724026698</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="Y35" t="n">
-        <v>1577.349453981588</v>
+        <v>807.9118383012946</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D36" t="n">
-        <v>382.4949705971605</v>
+        <v>382.4949705971606</v>
       </c>
       <c r="E36" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F36" t="n">
-        <v>184.1472065530019</v>
+        <v>184.147206553002</v>
       </c>
       <c r="G36" t="n">
-        <v>91.3179836120334</v>
+        <v>91.31798361203343</v>
       </c>
       <c r="H36" t="n">
-        <v>49.76845418497136</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I36" t="n">
-        <v>75.07978914432212</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0655064016224</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K36" t="n">
-        <v>339.6930667592873</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L36" t="n">
-        <v>577.994914754343</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M36" t="n">
-        <v>859.2274224705418</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N36" t="n">
-        <v>1150.244722631353</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O36" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P36" t="n">
-        <v>1620.486649455022</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q36" t="n">
-        <v>1751.169046541191</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R36" t="n">
         <v>1817.643160879484</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>600.5830081276281</v>
+        <v>926.691734739854</v>
       </c>
       <c r="C37" t="n">
-        <v>428.6104450065441</v>
+        <v>754.71917161877</v>
       </c>
       <c r="D37" t="n">
-        <v>428.6104450065441</v>
+        <v>591.4023987455407</v>
       </c>
       <c r="E37" t="n">
-        <v>262.4022391593976</v>
+        <v>425.1941928983942</v>
       </c>
       <c r="F37" t="n">
-        <v>262.4022391593976</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="G37" t="n">
-        <v>97.17189006702088</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H37" t="n">
-        <v>97.17189006702088</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I37" t="n">
-        <v>49.76845418497136</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J37" t="n">
         <v>178.3974764362856</v>
@@ -7104,43 +7104,43 @@
         <v>1026.108622645836</v>
       </c>
       <c r="M37" t="n">
-        <v>1233.792526504844</v>
+        <v>1546.548731078152</v>
       </c>
       <c r="N37" t="n">
-        <v>1367.22575817525</v>
+        <v>1679.981962748558</v>
       </c>
       <c r="O37" t="n">
-        <v>1864.874391771334</v>
+        <v>2177.630596344642</v>
       </c>
       <c r="P37" t="n">
-        <v>2277.167815000588</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q37" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.544691879674</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S37" t="n">
-        <v>2335.300841815817</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="T37" t="n">
-        <v>2096.347963935297</v>
+        <v>2248.591813999155</v>
       </c>
       <c r="U37" t="n">
-        <v>1816.219512923605</v>
+        <v>1968.463362987463</v>
       </c>
       <c r="V37" t="n">
-        <v>1534.508045531634</v>
+        <v>1686.751895595492</v>
       </c>
       <c r="W37" t="n">
-        <v>1259.655641704147</v>
+        <v>1411.899491768005</v>
       </c>
       <c r="X37" t="n">
-        <v>1017.091745149952</v>
+        <v>1169.33559521381</v>
       </c>
       <c r="Y37" t="n">
-        <v>790.7489768396937</v>
+        <v>1116.85770345192</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1577.349453981589</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="C38" t="n">
-        <v>1577.349453981589</v>
+        <v>1798.400958372571</v>
       </c>
       <c r="D38" t="n">
-        <v>1577.349453981589</v>
+        <v>1375.108337557572</v>
       </c>
       <c r="E38" t="n">
-        <v>1151.372514129446</v>
+        <v>949.1313977054293</v>
       </c>
       <c r="F38" t="n">
-        <v>726.2483323188463</v>
+        <v>524.0072158948295</v>
       </c>
       <c r="G38" t="n">
         <v>324.1979444598476</v>
@@ -7177,22 +7177,22 @@
         <v>263.3013860486623</v>
       </c>
       <c r="K38" t="n">
-        <v>513.228969837679</v>
+        <v>513.2289698376788</v>
       </c>
       <c r="L38" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M38" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N38" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O38" t="n">
         <v>1890.36537379155</v>
       </c>
       <c r="P38" t="n">
-        <v>2175.730653154893</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q38" t="n">
         <v>2382.200022306145</v>
@@ -7207,19 +7207,19 @@
         <v>2225.301688359271</v>
       </c>
       <c r="U38" t="n">
-        <v>1967.129872919808</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="V38" t="n">
-        <v>1609.640458046057</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="W38" t="n">
-        <v>1577.349453981589</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="X38" t="n">
-        <v>1577.349453981589</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="Y38" t="n">
-        <v>1577.349453981589</v>
+        <v>2225.301688359271</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.922083832231</v>
+        <v>827.8037938067807</v>
       </c>
       <c r="C40" t="n">
-        <v>919.9495207111468</v>
+        <v>827.8037938067807</v>
       </c>
       <c r="D40" t="n">
-        <v>756.6327478379175</v>
+        <v>664.4870209335514</v>
       </c>
       <c r="E40" t="n">
-        <v>590.424541990771</v>
+        <v>498.278815086405</v>
       </c>
       <c r="F40" t="n">
-        <v>418.5627677653314</v>
+        <v>326.4170408609654</v>
       </c>
       <c r="G40" t="n">
-        <v>253.3324186729547</v>
+        <v>161.1866917685886</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6637407256232</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I40" t="n">
         <v>49.76845418497138</v>
@@ -7335,16 +7335,16 @@
         <v>178.3974764362856</v>
       </c>
       <c r="K40" t="n">
-        <v>521.826161564851</v>
+        <v>274.5435524508289</v>
       </c>
       <c r="L40" t="n">
-        <v>1026.108622645836</v>
+        <v>778.8260135318144</v>
       </c>
       <c r="M40" t="n">
-        <v>1575.019409015117</v>
+        <v>1327.736799901095</v>
       </c>
       <c r="N40" t="n">
-        <v>1831.355460126458</v>
+        <v>1859.202954413382</v>
       </c>
       <c r="O40" t="n">
         <v>2329.004093722541</v>
@@ -7362,22 +7362,22 @@
         <v>2336.178859184712</v>
       </c>
       <c r="T40" t="n">
-        <v>2336.178859184712</v>
+        <v>2097.225981304192</v>
       </c>
       <c r="U40" t="n">
-        <v>2307.558588628207</v>
+        <v>1817.097530292499</v>
       </c>
       <c r="V40" t="n">
-        <v>2025.847121236236</v>
+        <v>1535.386062900528</v>
       </c>
       <c r="W40" t="n">
-        <v>1750.994717408749</v>
+        <v>1260.533659073041</v>
       </c>
       <c r="X40" t="n">
-        <v>1508.430820854554</v>
+        <v>1017.969762518846</v>
       </c>
       <c r="Y40" t="n">
-        <v>1282.088052544296</v>
+        <v>1017.969762518846</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>902.6461240238137</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="C41" t="n">
-        <v>475.7453940371138</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="D41" t="n">
-        <v>475.7453940371138</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="E41" t="n">
-        <v>49.76845418497138</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="F41" t="n">
-        <v>49.76845418497138</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="G41" t="n">
-        <v>49.76845418497138</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H41" t="n">
         <v>49.76845418497138</v>
       </c>
       <c r="I41" t="n">
-        <v>102.0442972147728</v>
+        <v>102.0442972147729</v>
       </c>
       <c r="J41" t="n">
         <v>263.3013860486624</v>
@@ -7417,7 +7417,7 @@
         <v>513.228969837679</v>
       </c>
       <c r="L41" t="n">
-        <v>829.2827739385798</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M41" t="n">
         <v>1186.099811633997</v>
@@ -7429,7 +7429,7 @@
         <v>1890.36537379155</v>
       </c>
       <c r="P41" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q41" t="n">
         <v>2382.200022306145</v>
@@ -7453,10 +7453,10 @@
         <v>1213.249108346404</v>
       </c>
       <c r="X41" t="n">
-        <v>902.6461240238137</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="Y41" t="n">
-        <v>902.6461240238137</v>
+        <v>1151.372514129446</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>49.76845418497138</v>
       </c>
       <c r="I42" t="n">
-        <v>75.07978914432215</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0655064016224</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K42" t="n">
-        <v>339.6930667592873</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L42" t="n">
-        <v>577.994914754343</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M42" t="n">
-        <v>859.2274224705418</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N42" t="n">
-        <v>1150.244722631353</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O42" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P42" t="n">
-        <v>1620.486649455022</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q42" t="n">
-        <v>1751.169046541191</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R42" t="n">
         <v>1817.643160879484</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1017.091745149953</v>
+        <v>600.583008127629</v>
       </c>
       <c r="C43" t="n">
-        <v>919.9495207111468</v>
+        <v>428.610445006545</v>
       </c>
       <c r="D43" t="n">
-        <v>756.6327478379175</v>
+        <v>425.1941928983942</v>
       </c>
       <c r="E43" t="n">
-        <v>590.424541990771</v>
+        <v>425.1941928983942</v>
       </c>
       <c r="F43" t="n">
-        <v>418.5627677653314</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="G43" t="n">
         <v>253.3324186729547</v>
@@ -7569,25 +7569,25 @@
         <v>49.76845418497138</v>
       </c>
       <c r="J43" t="n">
-        <v>178.3974764362856</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K43" t="n">
-        <v>521.826161564851</v>
+        <v>196.621835802608</v>
       </c>
       <c r="L43" t="n">
-        <v>1026.108622645836</v>
+        <v>700.9042968835935</v>
       </c>
       <c r="M43" t="n">
-        <v>1575.019409015117</v>
+        <v>987.1331010408635</v>
       </c>
       <c r="N43" t="n">
-        <v>1708.452640685523</v>
+        <v>1518.59925555315</v>
       </c>
       <c r="O43" t="n">
-        <v>1864.874391771335</v>
+        <v>2016.247889149234</v>
       </c>
       <c r="P43" t="n">
-        <v>2277.167815000589</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q43" t="n">
         <v>2488.422709248569</v>
@@ -7614,7 +7614,7 @@
         <v>1017.091745149953</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.091745149953</v>
+        <v>790.7489768396946</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2068.574344957039</v>
+        <v>1682.327821891813</v>
       </c>
       <c r="C44" t="n">
-        <v>1641.673614970339</v>
+        <v>1300.23564466957</v>
       </c>
       <c r="D44" t="n">
-        <v>1218.38099415534</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="E44" t="n">
-        <v>792.4040543031971</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="F44" t="n">
         <v>451.8188420439701</v>
@@ -7645,16 +7645,16 @@
         <v>49.76845418497138</v>
       </c>
       <c r="I44" t="n">
-        <v>102.0442972147721</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J44" t="n">
-        <v>263.3013860486622</v>
+        <v>263.3013860486623</v>
       </c>
       <c r="K44" t="n">
-        <v>513.2289698376787</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L44" t="n">
-        <v>829.2827739385797</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M44" t="n">
         <v>1186.099811633997</v>
@@ -7675,25 +7675,25 @@
         <v>2488.422709248569</v>
       </c>
       <c r="S44" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T44" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U44" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="V44" t="n">
-        <v>2488.422709248569</v>
+        <v>2078.719171591466</v>
       </c>
       <c r="W44" t="n">
-        <v>2488.422709248569</v>
+        <v>1682.327821891813</v>
       </c>
       <c r="X44" t="n">
-        <v>2488.422709248569</v>
+        <v>1682.327821891813</v>
       </c>
       <c r="Y44" t="n">
-        <v>2488.422709248569</v>
+        <v>1682.327821891813</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>184.147206553002</v>
       </c>
       <c r="G45" t="n">
-        <v>91.31798361203342</v>
+        <v>91.31798361203343</v>
       </c>
       <c r="H45" t="n">
         <v>49.76845418497138</v>
@@ -7727,19 +7727,19 @@
         <v>75.07978914432215</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K45" t="n">
-        <v>339.6930667592874</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L45" t="n">
-        <v>577.9949147543432</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M45" t="n">
-        <v>859.227422470542</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N45" t="n">
-        <v>1150.244722631353</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O45" t="n">
         <v>1428.251826469389</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>600.583008127629</v>
+        <v>601.4610254965228</v>
       </c>
       <c r="C46" t="n">
-        <v>455.7558640434395</v>
+        <v>601.4610254965228</v>
       </c>
       <c r="D46" t="n">
-        <v>455.7558640434395</v>
+        <v>601.4610254965228</v>
       </c>
       <c r="E46" t="n">
-        <v>455.7558640434395</v>
+        <v>435.2528196493763</v>
       </c>
       <c r="F46" t="n">
-        <v>283.8940898179999</v>
+        <v>263.3910454239367</v>
       </c>
       <c r="G46" t="n">
-        <v>118.6637407256232</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H46" t="n">
         <v>118.6637407256232</v>
@@ -7806,22 +7806,22 @@
         <v>49.76845418497138</v>
       </c>
       <c r="J46" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K46" t="n">
         <v>521.826161564851</v>
       </c>
       <c r="L46" t="n">
-        <v>649.7197290546715</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M46" t="n">
-        <v>835.759603662964</v>
+        <v>1575.019409015117</v>
       </c>
       <c r="N46" t="n">
-        <v>1367.225758175251</v>
+        <v>1708.452640685523</v>
       </c>
       <c r="O46" t="n">
-        <v>1864.874391771334</v>
+        <v>1864.874391771335</v>
       </c>
       <c r="P46" t="n">
         <v>2277.167815000589</v>
@@ -7830,28 +7830,28 @@
         <v>2488.422709248569</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.544691879675</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S46" t="n">
-        <v>2335.300841815818</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="T46" t="n">
-        <v>2096.347963935298</v>
+        <v>2097.225981304192</v>
       </c>
       <c r="U46" t="n">
-        <v>1816.219512923606</v>
+        <v>1817.097530292499</v>
       </c>
       <c r="V46" t="n">
-        <v>1534.508045531634</v>
+        <v>1535.386062900528</v>
       </c>
       <c r="W46" t="n">
-        <v>1259.655641704147</v>
+        <v>1260.533659073041</v>
       </c>
       <c r="X46" t="n">
-        <v>1017.091745149953</v>
+        <v>1017.969762518846</v>
       </c>
       <c r="Y46" t="n">
-        <v>790.7489768396946</v>
+        <v>791.6269942085884</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>197.1388831921419</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>298.504485226012</v>
+        <v>94.06963836310774</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>360.0219516362448</v>
@@ -8859,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>355.4735849779359</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>366.2873004017981</v>
       </c>
       <c r="P13" t="n">
-        <v>120.8910955478398</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>147.8754625841163</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>155.0190515770498</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>234.1036094826144</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.37539003541777</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>50.95854331539958</v>
+        <v>152.4238292424255</v>
       </c>
       <c r="M16" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>355.473584977936</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.37539003541778</v>
+        <v>70.37539003541777</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9327,22 +9327,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>50.95854331539957</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>354.4082905479648</v>
+        <v>354.408290547965</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>355.473584977936</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>164.3028390962585</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.37539003541778</v>
+        <v>70.37539003541777</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9561,22 +9561,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>126.5047566361199</v>
+        <v>360.0219516362449</v>
       </c>
       <c r="M22" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>366.2873004017981</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>226.584267279289</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>15.54933914661942</v>
       </c>
       <c r="J24" t="n">
-        <v>15.54933914661943</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>199.1594968952943</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>73.03898783085683</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J27" t="n">
-        <v>15.54933914661943</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>50.58002258716805</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>114.8554660395498</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10050,7 +10050,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.54933914661942</v>
       </c>
       <c r="J30" t="n">
-        <v>15.54933914661943</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>73.0389878308568</v>
+        <v>73.03898783085683</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>15.54933914661936</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.95054415278322</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>114.8554660395498</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>15.54933914661953</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>73.03898783085683</v>
+        <v>388.9543459857139</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>152.9025226039384</v>
@@ -10983,7 +10983,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10992,10 +10992,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>124.1442620615495</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>353.3887171881609</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>15.54933914661953</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>152.3772709604153</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>36.8438805989199</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>15.54933914661899</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11460,16 +11460,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>51.17633202205414</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>36.8438805989199</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>243.3032135918023</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>218.9546921126454</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>123.2006574029213</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>53.79974019881644</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
         <v>75.43872475250879</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>290.1770861481839</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>148.302382501512</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23667,13 +23667,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>67.71458391123802</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578065</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>11.71610411606906</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>370.3805883426637</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.5660300744983</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.632988972596</v>
@@ -23794,13 +23794,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>172.946672199144</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>118.2866664102924</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>134.8834998787017</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>213.5080449288781</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>398.5660300744983</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>174.6343240858942</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>60.07173712533179</v>
+        <v>92.1907683733595</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>404.3695283506011</v>
+        <v>342.5221204191483</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.0298839804087</v>
       </c>
       <c r="H23" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.69198155551913</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>208.7978291248855</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>127.0393012375332</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8692371952047111</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>103.9198941076396</v>
       </c>
     </row>
     <row r="26">
@@ -24445,13 +24445,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>398.0298839804087</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>367.3747811955831</v>
+        <v>130.5924929709438</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I28" t="n">
         <v>68.2063336752453</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8692371952047111</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>177.2118564884532</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>120.3512363157773</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>187.125820830419</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.69198155551913</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U29" t="n">
         <v>255.5900972850689</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.5595995977135</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0.8692371952047111</v>
       </c>
       <c r="S31" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>98.27168708741864</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>37.97644376090301</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>233.5850316774111</v>
       </c>
       <c r="C32" t="n">
-        <v>139.3059241385956</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.20808673174795</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>151.6267236690076</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,13 +25162,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>363.7133555430823</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>152.23862151341</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H37" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>21.27693215201628</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>172.126227782884</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>200.2187052597766</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>360.4593421788327</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>23.0179359600771</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>248.9930986506365</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>100.1058443645657</v>
+        <v>346.3449705691418</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>74.08203529545543</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>158.3015155574278</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>44.3604672368121</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>83.69357985585907</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.69198155551912</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>208.7978291248855</v>
@@ -25924,10 +25924,10 @@
         <v>255.5900972850689</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>26.87396484652552</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>153.6200051179808</v>
       </c>
       <c r="H46" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355750.2304600657</v>
+        <v>355750.2304600656</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355750.2304600656</v>
+        <v>355750.2304600657</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355750.2304600656</v>
+        <v>355750.2304600657</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355750.2304600656</v>
+        <v>355750.2304600658</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>429304.5626097724</v>
+        <v>429304.5626097725</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>429304.5626097724</v>
+        <v>429304.5626097725</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>429304.5626097724</v>
+        <v>429304.5626097725</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>429304.5626097725</v>
+        <v>429304.5626097727</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429304.5626097727</v>
+        <v>429304.5626097724</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>372942.1874182113</v>
+        <v>372942.1874182114</v>
       </c>
       <c r="C2" t="n">
-        <v>372942.1874182113</v>
+        <v>372942.1874182112</v>
       </c>
       <c r="D2" t="n">
-        <v>372942.1874182114</v>
+        <v>372942.1874182111</v>
       </c>
       <c r="E2" t="n">
         <v>199900.0674504389</v>
       </c>
       <c r="F2" t="n">
+        <v>199900.0674504387</v>
+      </c>
+      <c r="G2" t="n">
+        <v>199900.0674504389</v>
+      </c>
+      <c r="H2" t="n">
         <v>199900.0674504388</v>
       </c>
-      <c r="G2" t="n">
-        <v>199900.0674504388</v>
-      </c>
-      <c r="H2" t="n">
-        <v>199900.0674504389</v>
-      </c>
       <c r="I2" t="n">
-        <v>245442.6907414091</v>
+        <v>245442.6907414093</v>
       </c>
       <c r="J2" t="n">
-        <v>245442.6907414092</v>
+        <v>245442.6907414093</v>
       </c>
       <c r="K2" t="n">
         <v>245442.6907414093</v>
@@ -26349,13 +26349,13 @@
         <v>245442.6907414093</v>
       </c>
       <c r="N2" t="n">
+        <v>245442.6907414093</v>
+      </c>
+      <c r="O2" t="n">
+        <v>245442.6907414093</v>
+      </c>
+      <c r="P2" t="n">
         <v>245442.6907414092</v>
-      </c>
-      <c r="O2" t="n">
-        <v>245442.6907414092</v>
-      </c>
-      <c r="P2" t="n">
-        <v>245442.6907414093</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>145239.9140696161</v>
+        <v>145239.914069616</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>113002.0711424958</v>
+        <v>113002.0711424959</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>318811.9753531382</v>
       </c>
       <c r="E4" t="n">
+        <v>17851.02027559607</v>
+      </c>
+      <c r="F4" t="n">
         <v>17851.02027559606</v>
       </c>
-      <c r="F4" t="n">
-        <v>17851.02027559607</v>
-      </c>
       <c r="G4" t="n">
-        <v>17851.02027559605</v>
+        <v>17851.02027559606</v>
       </c>
       <c r="H4" t="n">
         <v>17851.02027559606</v>
@@ -26441,16 +26441,16 @@
         <v>14436.37642373354</v>
       </c>
       <c r="J4" t="n">
-        <v>14436.37642373354</v>
+        <v>14436.37642373355</v>
       </c>
       <c r="K4" t="n">
         <v>14436.37642373354</v>
       </c>
       <c r="L4" t="n">
-        <v>14436.37642373354</v>
+        <v>14436.37642373355</v>
       </c>
       <c r="M4" t="n">
-        <v>14436.37642373354</v>
+        <v>14436.37642373355</v>
       </c>
       <c r="N4" t="n">
         <v>14436.37642373355</v>
@@ -26459,7 +26459,7 @@
         <v>14436.37642373355</v>
       </c>
       <c r="P4" t="n">
-        <v>14436.37642373354</v>
+        <v>14436.37642373355</v>
       </c>
     </row>
     <row r="5">
@@ -26481,28 +26481,28 @@
         <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="G5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="H5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="I5" t="n">
         <v>50110.82600576626</v>
       </c>
       <c r="J5" t="n">
-        <v>50110.82600576626</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="K5" t="n">
         <v>50110.82600576626</v>
       </c>
       <c r="L5" t="n">
-        <v>50110.82600576626</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="M5" t="n">
-        <v>50110.82600576626</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="N5" t="n">
         <v>50110.82600576627</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20502.61206507316</v>
+        <v>20480.89842357687</v>
       </c>
       <c r="C6" t="n">
-        <v>20502.61206507316</v>
+        <v>20480.8984235767</v>
       </c>
       <c r="D6" t="n">
-        <v>20502.61206507322</v>
+        <v>20480.89842357664</v>
       </c>
       <c r="E6" t="n">
-        <v>-335953.9034806903</v>
+        <v>-336641.1637374474</v>
       </c>
       <c r="F6" t="n">
-        <v>145099.7463618012</v>
+        <v>144412.4861050441</v>
       </c>
       <c r="G6" t="n">
-        <v>145099.7463618012</v>
+        <v>144412.4861050442</v>
       </c>
       <c r="H6" t="n">
-        <v>145099.7463618013</v>
+        <v>144412.4861050442</v>
       </c>
       <c r="I6" t="n">
-        <v>35655.57424229319</v>
+        <v>35143.47792127094</v>
       </c>
       <c r="J6" t="n">
-        <v>180895.4883119094</v>
+        <v>180383.391990887</v>
       </c>
       <c r="K6" t="n">
-        <v>180895.4883119095</v>
+        <v>180383.391990887</v>
       </c>
       <c r="L6" t="n">
-        <v>180895.4883119095</v>
+        <v>180383.3919908871</v>
       </c>
       <c r="M6" t="n">
-        <v>67893.41716941365</v>
+        <v>67381.32084839117</v>
       </c>
       <c r="N6" t="n">
-        <v>180895.4883119094</v>
+        <v>180383.3919908869</v>
       </c>
       <c r="O6" t="n">
-        <v>180895.4883119094</v>
+        <v>180383.3919908871</v>
       </c>
       <c r="P6" t="n">
-        <v>180895.4883119095</v>
+        <v>180383.3919908869</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
         <v>430.2483758469461</v>
@@ -26779,7 +26779,7 @@
         <v>563.6147167517443</v>
       </c>
       <c r="P3" t="n">
-        <v>563.6147167517444</v>
+        <v>563.6147167517443</v>
       </c>
     </row>
     <row r="4">
@@ -26801,28 +26801,28 @@
         <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="I4" t="n">
-        <v>622.1056773121421</v>
+        <v>622.105677312142</v>
       </c>
       <c r="J4" t="n">
-        <v>622.1056773121421</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="K4" t="n">
         <v>622.105677312142</v>
       </c>
       <c r="L4" t="n">
-        <v>622.1056773121421</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="M4" t="n">
-        <v>622.105677312142</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="N4" t="n">
         <v>622.1056773121422</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133.3663409047982</v>
+        <v>133.3663409047981</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>168.6536013322387</v>
+        <v>168.6536013322384</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32007,28 +32007,28 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M14" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O14" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P14" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O15" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P15" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q15" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027707</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677269</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I16" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596669</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L16" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,22 +32174,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701256</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S16" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I17" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J17" t="n">
         <v>146.801178249406</v>
@@ -32247,7 +32247,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N17" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O17" t="n">
         <v>291.4251699938981</v>
@@ -32256,16 +32256,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R17" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S17" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I18" t="n">
         <v>31.86273349432573</v>
@@ -32317,7 +32317,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L18" t="n">
         <v>200.9381683613497</v>
@@ -32326,7 +32326,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O18" t="n">
         <v>220.1856947600876</v>
@@ -32338,16 +32338,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027709</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T18" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,19 +32387,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677271</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J19" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K19" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L19" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M19" t="n">
         <v>121.6192253234244</v>
@@ -32411,16 +32411,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701259</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R19" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S19" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T19" t="n">
         <v>3.315028469640403</v>
@@ -32469,7 +32469,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
@@ -32484,7 +32484,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O20" t="n">
         <v>291.4251699938981</v>
@@ -32493,16 +32493,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R20" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S20" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I21" t="n">
         <v>31.86273349432573</v>
@@ -32554,7 +32554,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K21" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L21" t="n">
         <v>200.9381683613497</v>
@@ -32563,7 +32563,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N21" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O21" t="n">
         <v>220.1856947600876</v>
@@ -32575,16 +32575,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027709</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,19 +32624,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677271</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I22" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K22" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L22" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M22" t="n">
         <v>121.6192253234244</v>
@@ -32648,16 +32648,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701259</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R22" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S22" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T22" t="n">
         <v>3.315028469640403</v>
@@ -34362,28 +34362,28 @@
         <v>2.265787806037161</v>
       </c>
       <c r="H44" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I44" t="n">
-        <v>87.35178439224775</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J44" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K44" t="n">
-        <v>288.2167056321998</v>
+        <v>288.2167056321999</v>
       </c>
       <c r="L44" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M44" t="n">
         <v>397.852513096823</v>
       </c>
       <c r="N44" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O44" t="n">
-        <v>381.7597552044441</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P44" t="n">
         <v>325.8231187429016</v>
@@ -34395,10 +34395,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S44" t="n">
-        <v>51.63163963007187</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T44" t="n">
-        <v>9.91848612092768</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U44" t="n">
         <v>0.1812630244829729</v>
@@ -34444,13 +34444,13 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I45" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J45" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K45" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L45" t="n">
         <v>263.2240240829727</v>
@@ -34462,25 +34462,25 @@
         <v>315.2998970628461</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P45" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q45" t="n">
         <v>154.7494595881393</v>
       </c>
       <c r="R45" t="n">
-        <v>75.26915028620468</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S45" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T45" t="n">
-        <v>4.886433251838235</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07975679954034122</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,16 +34520,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H46" t="n">
-        <v>9.036314639068957</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I46" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J46" t="n">
-        <v>71.85625659308714</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K46" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L46" t="n">
         <v>151.1041816025906</v>
@@ -34538,7 +34538,7 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N46" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O46" t="n">
         <v>143.6570756730512</v>
@@ -34547,19 +34547,19 @@
         <v>122.9234457650033</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.10582222951339</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R46" t="n">
-        <v>45.69898998449388</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S46" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T46" t="n">
         <v>4.342605194644586</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>15.69034674432572</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
         <v>127.0390157285253</v>
@@ -35503,16 +35503,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>394.1526882300072</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
-        <v>453.4520759799035</v>
+        <v>249.0172291169993</v>
       </c>
       <c r="Q12" t="n">
         <v>95.38455350960186</v>
       </c>
       <c r="R12" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
         <v>453.4520759799035</v>
@@ -35579,16 +35579,16 @@
         <v>99.04378543193859</v>
       </c>
       <c r="N13" t="n">
-        <v>453.4520759799035</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O13" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="P13" t="n">
-        <v>192.3467603368659</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.3479419881039</v>
+        <v>188.2234045722202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J14" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K14" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O14" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P14" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q14" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
-        <v>221.8417133203114</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N15" t="n">
-        <v>453.4520759799034</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.38455350960184</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35807,25 +35807,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>318.9563201597416</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L16" t="n">
-        <v>144.3886676590583</v>
+        <v>245.8539535860842</v>
       </c>
       <c r="M16" t="n">
-        <v>453.4520759799034</v>
+        <v>99.04378543193862</v>
       </c>
       <c r="N16" t="n">
-        <v>97.97849100196757</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="O16" t="n">
-        <v>87.16477557810535</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="P16" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902612</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810393</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J17" t="n">
         <v>117.3812187638195</v>
@@ -35895,7 +35895,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O17" t="n">
         <v>254.034210637874</v>
@@ -35907,7 +35907,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R17" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M18" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N18" t="n">
         <v>219.3484664972891</v>
@@ -35980,7 +35980,7 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q18" t="n">
         <v>165.7599435450197</v>
@@ -36044,25 +36044,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>318.9563201597416</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L19" t="n">
-        <v>144.3886676590583</v>
+        <v>93.43012434365875</v>
       </c>
       <c r="M19" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="N19" t="n">
-        <v>97.9784910019676</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="O19" t="n">
-        <v>87.16477557810538</v>
+        <v>87.16477557810539</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438823</v>
+        <v>235.7585038852846</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810393</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J20" t="n">
         <v>117.3812187638195</v>
@@ -36132,7 +36132,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O20" t="n">
         <v>254.034210637874</v>
@@ -36144,7 +36144,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M21" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N21" t="n">
         <v>219.3484664972891</v>
@@ -36217,7 +36217,7 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q21" t="n">
         <v>165.7599435450197</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055221</v>
+        <v>34.21638531055223</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325471</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L22" t="n">
-        <v>219.9348809797786</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799034</v>
+        <v>99.04378543193862</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799034</v>
+        <v>97.97849100196763</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="P22" t="n">
-        <v>71.4556647890261</v>
+        <v>298.0399320683151</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.34794198810391</v>
+        <v>40.34794198810393</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.56700500944522</v>
+        <v>41.11634415606464</v>
       </c>
       <c r="J24" t="n">
-        <v>109.4743060731854</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K24" t="n">
         <v>173.3611720784494</v>
@@ -36518,22 +36518,22 @@
         <v>129.9283053043578</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2767453948329</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L25" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M25" t="n">
-        <v>554.4553397669501</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N25" t="n">
-        <v>536.8344995073601</v>
+        <v>207.8200299221764</v>
       </c>
       <c r="O25" t="n">
         <v>502.6753874707916</v>
       </c>
       <c r="P25" t="n">
-        <v>100.5426451070168</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q25" t="n">
         <v>213.3887820686668</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25.56700500944522</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J27" t="n">
-        <v>109.4743060731854</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K27" t="n">
         <v>173.3611720784494</v>
@@ -36755,10 +36755,10 @@
         <v>51.21950060918526</v>
       </c>
       <c r="K28" t="n">
-        <v>147.6972710867067</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L28" t="n">
-        <v>509.3762233141267</v>
+        <v>244.0408877464392</v>
       </c>
       <c r="M28" t="n">
         <v>554.4553397669501</v>
@@ -36770,7 +36770,7 @@
         <v>502.6753874707916</v>
       </c>
       <c r="P28" t="n">
-        <v>100.5426451070168</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q28" t="n">
         <v>60.48625946472843</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25.56700500944522</v>
+        <v>41.11634415606464</v>
       </c>
       <c r="J30" t="n">
-        <v>109.4743060731854</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K30" t="n">
         <v>173.3611720784494</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>25.56700500944522</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J33" t="n">
         <v>93.92496692656596</v>
@@ -37165,7 +37165,7 @@
         <v>265.2659172554369</v>
       </c>
       <c r="P33" t="n">
-        <v>225.2752671676157</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q33" t="n">
         <v>132.0024212991608</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.1700447619685</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K34" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L34" t="n">
-        <v>509.3762233141267</v>
+        <v>244.0408877464392</v>
       </c>
       <c r="M34" t="n">
         <v>554.4553397669501</v>
       </c>
       <c r="N34" t="n">
-        <v>134.7810420913195</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O34" t="n">
         <v>502.6753874707916</v>
       </c>
       <c r="P34" t="n">
-        <v>100.5426451070168</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q34" t="n">
-        <v>213.3887820686668</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>25.56700500944522</v>
       </c>
       <c r="J36" t="n">
-        <v>93.92496692656596</v>
+        <v>109.4743060731854</v>
       </c>
       <c r="K36" t="n">
         <v>173.3611720784494</v>
@@ -37408,7 +37408,7 @@
         <v>132.0024212991608</v>
       </c>
       <c r="R36" t="n">
-        <v>67.14557003868005</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,7 +37472,7 @@
         <v>509.3762233141267</v>
       </c>
       <c r="M37" t="n">
-        <v>209.7817210697042</v>
+        <v>525.6970792245612</v>
       </c>
       <c r="N37" t="n">
         <v>134.7810420913195</v>
@@ -37481,7 +37481,7 @@
         <v>502.6753874707916</v>
       </c>
       <c r="P37" t="n">
-        <v>416.458003261873</v>
+        <v>100.5426451070168</v>
       </c>
       <c r="Q37" t="n">
         <v>213.3887820686668</v>
@@ -37551,7 +37551,7 @@
         <v>319.2462667685867</v>
       </c>
       <c r="M38" t="n">
-        <v>360.4212501973911</v>
+        <v>360.4212501973912</v>
       </c>
       <c r="N38" t="n">
         <v>367.0105598662801</v>
@@ -37703,7 +37703,7 @@
         <v>129.9283053043578</v>
       </c>
       <c r="K40" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L40" t="n">
         <v>509.3762233141267</v>
@@ -37712,10 +37712,10 @@
         <v>554.4553397669501</v>
       </c>
       <c r="N40" t="n">
-        <v>258.925304152869</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O40" t="n">
-        <v>502.6753874707916</v>
+        <v>474.5466053627875</v>
       </c>
       <c r="P40" t="n">
         <v>100.5426451070168</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.56700500944522</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J42" t="n">
         <v>93.92496692656596</v>
@@ -37882,7 +37882,7 @@
         <v>132.0024212991608</v>
       </c>
       <c r="R42" t="n">
-        <v>67.14557003868005</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9283053043578</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K43" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L43" t="n">
         <v>509.3762233141267</v>
       </c>
       <c r="M43" t="n">
-        <v>554.4553397669501</v>
+        <v>289.1200041992627</v>
       </c>
       <c r="N43" t="n">
-        <v>134.7810420913195</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O43" t="n">
-        <v>158.0017687735466</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P43" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q43" t="n">
-        <v>213.3887820686668</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.80388184828425</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J44" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K44" t="n">
-        <v>252.4521048373905</v>
+        <v>252.4521048373906</v>
       </c>
       <c r="L44" t="n">
         <v>319.2462667685867</v>
       </c>
       <c r="M44" t="n">
-        <v>360.4212501973912</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N44" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O44" t="n">
-        <v>344.36879584842</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P44" t="n">
         <v>288.2477569326703</v>
       </c>
       <c r="Q44" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R44" t="n">
         <v>107.2956433761855</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.56700500944523</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J45" t="n">
-        <v>93.92496692656599</v>
+        <v>109.4743060731854</v>
       </c>
       <c r="K45" t="n">
         <v>173.3611720784494</v>
       </c>
       <c r="L45" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M45" t="n">
         <v>284.0732401173726</v>
@@ -38110,7 +38110,7 @@
         <v>293.9568688493044</v>
       </c>
       <c r="O45" t="n">
-        <v>280.815256402056</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P45" t="n">
         <v>209.7259280209963</v>
@@ -38119,7 +38119,7 @@
         <v>132.0024212991608</v>
       </c>
       <c r="R45" t="n">
-        <v>51.59623089206053</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K46" t="n">
         <v>346.8976617460256</v>
       </c>
       <c r="L46" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M46" t="n">
-        <v>187.9190652609015</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N46" t="n">
-        <v>536.8344995073602</v>
+        <v>134.7810420913195</v>
       </c>
       <c r="O46" t="n">
-        <v>502.6753874707916</v>
+        <v>158.0017687735466</v>
       </c>
       <c r="P46" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q46" t="n">
-        <v>213.3887820686669</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
